--- a/data/trans_orig/P59A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P59A-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>25061</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16841</v>
+        <v>15833</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>37390</v>
+        <v>35741</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09639081400285784</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06477487076609245</v>
+        <v>0.06089709986400632</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.143815552836026</v>
+        <v>0.1374707605466188</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -765,19 +765,19 @@
         <v>15443</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8825</v>
+        <v>8756</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>24740</v>
+        <v>24875</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0595301926662529</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03401811201610989</v>
+        <v>0.03375313126499774</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09536763113008247</v>
+        <v>0.09588590225687019</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>38</v>
@@ -786,19 +786,19 @@
         <v>40504</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>29711</v>
+        <v>29188</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>52975</v>
+        <v>54610</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07798060956382794</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0572004131822092</v>
+        <v>0.05619494192258258</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1019907291522774</v>
+        <v>0.1051382335613967</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>234928</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>222599</v>
+        <v>224248</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>243148</v>
+        <v>244156</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9036091859971421</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.856184447163974</v>
+        <v>0.8625292394533814</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9352251292339078</v>
+        <v>0.9391029001359936</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>247</v>
@@ -836,19 +836,19 @@
         <v>243979</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>234682</v>
+        <v>234547</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>250597</v>
+        <v>250666</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9404698073337471</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9046323688699172</v>
+        <v>0.9041140977431298</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9659818879838901</v>
+        <v>0.9662468687350023</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>480</v>
@@ -857,19 +857,19 @@
         <v>478908</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>466437</v>
+        <v>464802</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>489701</v>
+        <v>490224</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9220193904361721</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8980092708477225</v>
+        <v>0.8948617664386033</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9427995868177907</v>
+        <v>0.9438050580774173</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>42770</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>30573</v>
+        <v>30571</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>56212</v>
+        <v>57737</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1179040807080171</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08428067888426301</v>
+        <v>0.08427424722748306</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1549579990191768</v>
+        <v>0.1591640440800055</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>29</v>
@@ -982,19 +982,19 @@
         <v>31020</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>21988</v>
+        <v>21246</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>44178</v>
+        <v>43700</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08790139918218391</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06230779344139029</v>
+        <v>0.06020390221742532</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1251894732672835</v>
+        <v>0.1238325894243921</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>66</v>
@@ -1003,19 +1003,19 @@
         <v>73790</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>59360</v>
+        <v>57733</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>93123</v>
+        <v>92006</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1031094526328491</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08294567998869913</v>
+        <v>0.08067268864780719</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.130123688561292</v>
+        <v>0.1285631876544628</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>319984</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>306542</v>
+        <v>305017</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>332181</v>
+        <v>332183</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8820959192919828</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8450420009808233</v>
+        <v>0.8408359559199946</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9157193211157371</v>
+        <v>0.915725752772517</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>309</v>
@@ -1053,19 +1053,19 @@
         <v>321873</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>308715</v>
+        <v>309193</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>330905</v>
+        <v>331647</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9120986008178161</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8748105267327166</v>
+        <v>0.876167410575608</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9376922065586097</v>
+        <v>0.9397960977825747</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>606</v>
@@ -1074,19 +1074,19 @@
         <v>641857</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>622524</v>
+        <v>623641</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>656287</v>
+        <v>657914</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8968905473671509</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8698763114387079</v>
+        <v>0.8714368123455372</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9170543200113009</v>
+        <v>0.9193273113521927</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>33110</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>22638</v>
+        <v>23844</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45831</v>
+        <v>47554</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1408679986390052</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09631432845076941</v>
+        <v>0.1014467205294795</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.194990520257188</v>
+        <v>0.202321222636048</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>28</v>
@@ -1199,19 +1199,19 @@
         <v>29212</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19888</v>
+        <v>19493</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>40789</v>
+        <v>40245</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1097298903175493</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07470565143781775</v>
+        <v>0.07322200713099036</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1532177722689876</v>
+        <v>0.151173905833167</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>58</v>
@@ -1220,19 +1220,19 @@
         <v>62322</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>48791</v>
+        <v>47637</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>77855</v>
+        <v>79109</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1243308223592911</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09733612628055213</v>
+        <v>0.09503496555388077</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1553196531207164</v>
+        <v>0.1578218852686261</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>201934</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>189213</v>
+        <v>187490</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>212406</v>
+        <v>211200</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8591320013609948</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8050094797428116</v>
+        <v>0.7976787773639517</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9036856715492305</v>
+        <v>0.8985532794705205</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>244</v>
@@ -1270,19 +1270,19 @@
         <v>237002</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>225425</v>
+        <v>225969</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>246326</v>
+        <v>246721</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8902701096824507</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8467822277310124</v>
+        <v>0.8488260941668329</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9252943485621823</v>
+        <v>0.9267779928690095</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>437</v>
@@ -1291,19 +1291,19 @@
         <v>438936</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>423403</v>
+        <v>422149</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>452467</v>
+        <v>453621</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8756691776407088</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8446803468792836</v>
+        <v>0.8421781147313739</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9026638737194478</v>
+        <v>0.9049650344461193</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>75339</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>61048</v>
+        <v>60089</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>93172</v>
+        <v>91795</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.175016581954489</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1418192629512765</v>
+        <v>0.1395906278575607</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2164449052024758</v>
+        <v>0.2132466383366757</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>61</v>
@@ -1416,19 +1416,19 @@
         <v>65703</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>51633</v>
+        <v>51000</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>81466</v>
+        <v>81847</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1304312778051789</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1025011010510888</v>
+        <v>0.1012439217656575</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1617249632481873</v>
+        <v>0.1624804516364679</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>138</v>
@@ -1437,19 +1437,19 @@
         <v>141041</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>121904</v>
+        <v>119918</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>163822</v>
+        <v>161030</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.150975504103336</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1304906104440154</v>
+        <v>0.1283639956798442</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1753606410277797</v>
+        <v>0.1723726725411006</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>355126</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>337293</v>
+        <v>338670</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>369417</v>
+        <v>370376</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.824983418045511</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7835550947975243</v>
+        <v>0.7867533616633243</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8581807370487237</v>
+        <v>0.8604093721424393</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>422</v>
@@ -1487,19 +1487,19 @@
         <v>438031</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>422268</v>
+        <v>421887</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>452101</v>
+        <v>452734</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8695687221948211</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8382750367518127</v>
+        <v>0.8375195483635319</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8974988989489112</v>
+        <v>0.8987560782343424</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>796</v>
@@ -1508,19 +1508,19 @@
         <v>793158</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>770377</v>
+        <v>773169</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>812295</v>
+        <v>814281</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8490244958966641</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8246393589722203</v>
+        <v>0.8276273274588991</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8695093895559847</v>
+        <v>0.8716360043201558</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>176279</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>153836</v>
+        <v>153673</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>203060</v>
+        <v>205331</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.136836108197536</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1194146847497842</v>
+        <v>0.1192883250571037</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1576245902527514</v>
+        <v>0.1593876512377565</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>133</v>
@@ -1633,19 +1633,19 @@
         <v>141378</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>118695</v>
+        <v>120623</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>165144</v>
+        <v>168712</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1022797520026375</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08587015906277999</v>
+        <v>0.0872650148974607</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1194734612322002</v>
+        <v>0.122054940217543</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>300</v>
@@ -1654,19 +1654,19 @@
         <v>317657</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>285580</v>
+        <v>283262</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>351090</v>
+        <v>354979</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1189496795805522</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1069383259986586</v>
+        <v>0.1060700874764048</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.131469001982865</v>
+        <v>0.1329254811615362</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>1111973</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1085192</v>
+        <v>1082921</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1134416</v>
+        <v>1134579</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.863163891802464</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8423754097472487</v>
+        <v>0.8406123487622434</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8805853152502159</v>
+        <v>0.8807116749428961</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1222</v>
@@ -1704,19 +1704,19 @@
         <v>1240885</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1217119</v>
+        <v>1213551</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1263568</v>
+        <v>1261640</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8977202479973625</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8805265387677996</v>
+        <v>0.877945059782457</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9141298409372198</v>
+        <v>0.9127349851025394</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2319</v>
@@ -1725,19 +1725,19 @@
         <v>2352858</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2319425</v>
+        <v>2315536</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2384935</v>
+        <v>2387253</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8810503204194479</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.868530998017135</v>
+        <v>0.8670745188384634</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8930616740013414</v>
+        <v>0.8939299125235949</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>37699</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>27030</v>
+        <v>27720</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>53287</v>
+        <v>52088</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1381477310879723</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09905117698663762</v>
+        <v>0.1015810786800235</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1952717126373725</v>
+        <v>0.1908785434767062</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>28</v>
@@ -2090,19 +2090,19 @@
         <v>31308</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>21071</v>
+        <v>21007</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>45130</v>
+        <v>44719</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1238229434109906</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08333803654817594</v>
+        <v>0.08308253155231152</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1784905765565452</v>
+        <v>0.1768660896617025</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>60</v>
@@ -2111,19 +2111,19 @@
         <v>69006</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>53888</v>
+        <v>53367</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>89497</v>
+        <v>87398</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1312584324159345</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.102502195062454</v>
+        <v>0.1015107451513588</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1702344935829844</v>
+        <v>0.1662424079057069</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>235187</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>219599</v>
+        <v>220798</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>245856</v>
+        <v>245166</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8618522689120277</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8047282873626275</v>
+        <v>0.8091214565232938</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9009488230133623</v>
+        <v>0.8984189213199765</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>207</v>
@@ -2161,19 +2161,19 @@
         <v>221533</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>207711</v>
+        <v>208122</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>231770</v>
+        <v>231834</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8761770565890094</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8215094234434545</v>
+        <v>0.8231339103382975</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.916661963451824</v>
+        <v>0.9169174684476885</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>436</v>
@@ -2182,19 +2182,19 @@
         <v>456721</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>436230</v>
+        <v>438329</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>471839</v>
+        <v>472360</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8687415675840655</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8297655064170155</v>
+        <v>0.8337575920942931</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8974978049375459</v>
+        <v>0.8984892548486411</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>61343</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>47243</v>
+        <v>47010</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>77761</v>
+        <v>78902</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1533570794502031</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1181076564958191</v>
+        <v>0.1175261979362106</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1944038851745931</v>
+        <v>0.1972568245245348</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>44</v>
@@ -2307,19 +2307,19 @@
         <v>49921</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>36937</v>
+        <v>37337</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>65126</v>
+        <v>65961</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1279579347397458</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09467812846543708</v>
+        <v>0.09570213015828639</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1669336624401158</v>
+        <v>0.1690735645930678</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>99</v>
@@ -2328,19 +2328,19 @@
         <v>111263</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>92051</v>
+        <v>91087</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>134877</v>
+        <v>132266</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1408160635315995</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1165010697044934</v>
+        <v>0.1152813080417473</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.170702330202892</v>
+        <v>0.1673978571931433</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>338655</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>322237</v>
+        <v>321096</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>352755</v>
+        <v>352988</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.846642920549797</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8055961148254068</v>
+        <v>0.8027431754754651</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8818923435041809</v>
+        <v>0.8824738020637892</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>317</v>
@@ -2378,19 +2378,19 @@
         <v>340212</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>325007</v>
+        <v>324172</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>353196</v>
+        <v>352796</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8720420652602542</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.833066337559884</v>
+        <v>0.8309264354069321</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.905321871534563</v>
+        <v>0.9042978698417136</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>630</v>
@@ -2399,19 +2399,19 @@
         <v>678868</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>655254</v>
+        <v>657865</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>698080</v>
+        <v>699044</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8591839364684004</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8292976697971081</v>
+        <v>0.8326021428068567</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8834989302955065</v>
+        <v>0.8847186919582527</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>56967</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>43231</v>
+        <v>43986</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>73008</v>
+        <v>73642</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1847100802288362</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1401729351103205</v>
+        <v>0.1426213528101131</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2367224387937943</v>
+        <v>0.2387773926637383</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>38</v>
@@ -2524,19 +2524,19 @@
         <v>42840</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>31161</v>
+        <v>30094</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>56468</v>
+        <v>55701</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1422681748196656</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1034830944323681</v>
+        <v>0.09994037730819048</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1875262463924924</v>
+        <v>0.1849794612712206</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>88</v>
@@ -2545,19 +2545,19 @@
         <v>99807</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>82265</v>
+        <v>82361</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>120006</v>
+        <v>121532</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1637430327310524</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1349644691871338</v>
+        <v>0.1351219896518878</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1968820612790799</v>
+        <v>0.1993849616713591</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>251446</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>235405</v>
+        <v>234771</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>265182</v>
+        <v>264427</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8152899197711638</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7632775612062057</v>
+        <v>0.7612226073362616</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8598270648896795</v>
+        <v>0.8573786471898869</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>237</v>
@@ -2595,19 +2595,19 @@
         <v>258280</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>244652</v>
+        <v>245419</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>269959</v>
+        <v>271026</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8577318251803343</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8124737536075076</v>
+        <v>0.8150205387287794</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8965169055676317</v>
+        <v>0.9000596226918095</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>471</v>
@@ -2616,19 +2616,19 @@
         <v>509727</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>489528</v>
+        <v>488002</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>527269</v>
+        <v>527173</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8362569672689476</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8031179387209203</v>
+        <v>0.8006150383286408</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8650355308128663</v>
+        <v>0.8648780103481121</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>55574</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>43585</v>
+        <v>41870</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>71898</v>
+        <v>70597</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1382286498205401</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.108408169600537</v>
+        <v>0.1041431014980637</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1788311904629404</v>
+        <v>0.1755959836413425</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>73</v>
@@ -2741,19 +2741,19 @@
         <v>78672</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>62917</v>
+        <v>62048</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>95614</v>
+        <v>96377</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.164005415690262</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1311615815455478</v>
+        <v>0.1293506913772841</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1993244398154882</v>
+        <v>0.2009149143103857</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>128</v>
@@ -2762,19 +2762,19 @@
         <v>134245</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>112801</v>
+        <v>111616</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>158332</v>
+        <v>157101</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1522519925090441</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1279313810488026</v>
+        <v>0.1265875486613972</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1795689689558225</v>
+        <v>0.1781739458081863</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>346469</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>330145</v>
+        <v>331446</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>358458</v>
+        <v>360173</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8617713501794598</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.82116880953706</v>
+        <v>0.8244040163586577</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8915918303994631</v>
+        <v>0.8958568985019365</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>384</v>
@@ -2812,19 +2812,19 @@
         <v>401017</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>384075</v>
+        <v>383312</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>416772</v>
+        <v>417641</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8359945843097381</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8006755601845119</v>
+        <v>0.7990850856896143</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8688384184544523</v>
+        <v>0.8706493086227159</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>724</v>
@@ -2833,19 +2833,19 @@
         <v>747486</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>723399</v>
+        <v>724630</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>768930</v>
+        <v>770115</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8477480074909559</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8204310310441776</v>
+        <v>0.8218260541918138</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8720686189511974</v>
+        <v>0.8734124513386028</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>211582</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>185397</v>
+        <v>186567</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>241078</v>
+        <v>242911</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.152950083924151</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1340211504308723</v>
+        <v>0.1348668559932951</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1742724592027449</v>
+        <v>0.1755975000669664</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>183</v>
@@ -2958,19 +2958,19 @@
         <v>202740</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>175717</v>
+        <v>175782</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>230095</v>
+        <v>232381</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1423949525081311</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1234153508396352</v>
+        <v>0.1234615688353393</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1616082821397263</v>
+        <v>0.1632137723156067</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>375</v>
@@ -2979,19 +2979,19 @@
         <v>414321</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>376771</v>
+        <v>374176</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>452600</v>
+        <v>454726</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1475964837970203</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1342196862495614</v>
+        <v>0.133295024894924</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1612325150463496</v>
+        <v>0.1619901552269761</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>1171758</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1142262</v>
+        <v>1140429</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1197943</v>
+        <v>1196773</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.847049916075849</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8257275407972551</v>
+        <v>0.8244024999330334</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8659788495691275</v>
+        <v>0.8651331440067047</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1145</v>
@@ -3029,19 +3029,19 @@
         <v>1221043</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1193688</v>
+        <v>1191402</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1248066</v>
+        <v>1248001</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8576050474918689</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.838391717860274</v>
+        <v>0.8367862276843935</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8765846491603648</v>
+        <v>0.8765384311646608</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2261</v>
@@ -3050,19 +3050,19 @@
         <v>2392802</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2354523</v>
+        <v>2352397</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2430352</v>
+        <v>2432947</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8524035162029797</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8387674849536505</v>
+        <v>0.838009844773024</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8657803137504386</v>
+        <v>0.8667049751050762</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>49379</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>36393</v>
+        <v>37574</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>63637</v>
+        <v>64289</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1723463512959249</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1270204294702706</v>
+        <v>0.1311435219407833</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2221087127441163</v>
+        <v>0.2243857331758197</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>38</v>
@@ -3415,19 +3415,19 @@
         <v>36654</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>27647</v>
+        <v>26049</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>49495</v>
+        <v>49010</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1319359250726108</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09951799250181882</v>
+        <v>0.09376375918232979</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1781605115808233</v>
+        <v>0.1764129936113214</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>83</v>
@@ -3436,19 +3436,19 @@
         <v>86033</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>68236</v>
+        <v>68435</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>103647</v>
+        <v>103747</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1524526174690803</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1209164786023077</v>
+        <v>0.1212686258562806</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1836653044101335</v>
+        <v>0.1838420595688827</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>237134</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>222876</v>
+        <v>222224</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>250120</v>
+        <v>248939</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8276536487040751</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7778912872558835</v>
+        <v>0.7756142668241803</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8729795705297294</v>
+        <v>0.8688564780592167</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>237</v>
@@ -3486,19 +3486,19 @@
         <v>241160</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>228319</v>
+        <v>228804</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>250167</v>
+        <v>251765</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8680640749273891</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8218394884191768</v>
+        <v>0.8235870063886789</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9004820074981812</v>
+        <v>0.9062362408176704</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>469</v>
@@ -3507,19 +3507,19 @@
         <v>478294</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>460680</v>
+        <v>460580</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>496091</v>
+        <v>495892</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8475473825309197</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8163346955898666</v>
+        <v>0.8161579404311173</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8790835213976923</v>
+        <v>0.8787313741437195</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>74024</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>59230</v>
+        <v>56337</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>93835</v>
+        <v>91047</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1679436237364269</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1343805927358109</v>
+        <v>0.1278164757627154</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2128902346034199</v>
+        <v>0.2065668959407726</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>61</v>
@@ -3632,19 +3632,19 @@
         <v>62355</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>47772</v>
+        <v>48377</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>79999</v>
+        <v>77952</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1564021238346389</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1198244067146327</v>
+        <v>0.12134288732376</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2006575734274691</v>
+        <v>0.1955230377889873</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>126</v>
@@ -3653,19 +3653,19 @@
         <v>136379</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>116994</v>
+        <v>114899</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>162621</v>
+        <v>159868</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1624621614589454</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1393700241234196</v>
+        <v>0.1368745867669615</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1937239903210705</v>
+        <v>0.1904444582029348</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>366741</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>346930</v>
+        <v>349718</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>381535</v>
+        <v>384428</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8320563762635731</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7871097653965796</v>
+        <v>0.7934331040592273</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.865619407264189</v>
+        <v>0.8721835242372845</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>319</v>
@@ -3703,19 +3703,19 @@
         <v>336328</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>318684</v>
+        <v>320731</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>350911</v>
+        <v>350306</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8435978761653611</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7993424265725309</v>
+        <v>0.8044769622110127</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8801755932853673</v>
+        <v>0.8786571126762404</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>667</v>
@@ -3724,19 +3724,19 @@
         <v>703069</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>676827</v>
+        <v>679580</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>722454</v>
+        <v>724549</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8375378385410546</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8062760096789295</v>
+        <v>0.809555541797065</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8606299758765803</v>
+        <v>0.8631254132330384</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>54901</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>41943</v>
+        <v>41992</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>70296</v>
+        <v>70695</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1707400811938973</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.130442080590022</v>
+        <v>0.13059311991567</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2186181614222248</v>
+        <v>0.2198591133602991</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>49</v>
@@ -3849,19 +3849,19 @@
         <v>48080</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>37013</v>
+        <v>35032</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>63175</v>
+        <v>61196</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1352869854853622</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1041463729141856</v>
+        <v>0.09857348208234262</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1777605672524866</v>
+        <v>0.172194208871956</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>98</v>
@@ -3870,19 +3870,19 @@
         <v>102981</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>84942</v>
+        <v>84140</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>121262</v>
+        <v>123338</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1521272885117675</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1254788763133134</v>
+        <v>0.1242944502893151</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.179132559923419</v>
+        <v>0.1821989311252404</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>266647</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>251252</v>
+        <v>250853</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>279605</v>
+        <v>279556</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8292599188061027</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7813818385777751</v>
+        <v>0.7801408866397009</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8695579194099775</v>
+        <v>0.8694068800843299</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>286</v>
@@ -3920,19 +3920,19 @@
         <v>307312</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>292217</v>
+        <v>294196</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>318379</v>
+        <v>320360</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8647130145146378</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8222394327475135</v>
+        <v>0.8278057911280441</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8958536270858144</v>
+        <v>0.9014265179176575</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>530</v>
@@ -3941,19 +3941,19 @@
         <v>573959</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>555678</v>
+        <v>553602</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>591998</v>
+        <v>592800</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8478727114882325</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8208674400765813</v>
+        <v>0.8178010688747596</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8745211236866868</v>
+        <v>0.875705549710685</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>76959</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>61424</v>
+        <v>61362</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>92917</v>
+        <v>94371</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1862887078511887</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1486846311025325</v>
+        <v>0.1485350396486642</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2249172978684608</v>
+        <v>0.2284376304943699</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>72</v>
@@ -4066,19 +4066,19 @@
         <v>77109</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>59629</v>
+        <v>60173</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>94073</v>
+        <v>94989</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.137393860090206</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1062469182171676</v>
+        <v>0.1072171178045044</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1676206234755629</v>
+        <v>0.169252164782854</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>147</v>
@@ -4087,19 +4087,19 @@
         <v>154068</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>131814</v>
+        <v>133102</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>177916</v>
+        <v>179247</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1581250243751904</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1352849197975108</v>
+        <v>0.1366067600319403</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1826009301440102</v>
+        <v>0.1839671067589642</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>336158</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>320200</v>
+        <v>318746</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>351693</v>
+        <v>351755</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8137112921488113</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7750827021315392</v>
+        <v>0.7715623695056302</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8513153688974674</v>
+        <v>0.8514649603513359</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>440</v>
@@ -4137,19 +4137,19 @@
         <v>484118</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>467154</v>
+        <v>466238</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>501598</v>
+        <v>501054</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8626061399097941</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8323793765244375</v>
+        <v>0.8307478352171456</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8937530817828327</v>
+        <v>0.8927828821954955</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>772</v>
@@ -4158,19 +4158,19 @@
         <v>820276</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>796428</v>
+        <v>795097</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>842530</v>
+        <v>841242</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8418749756248096</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8173990698559902</v>
+        <v>0.8160328932410361</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8647150802024892</v>
+        <v>0.8633932399680598</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>255263</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>225082</v>
+        <v>227557</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>286459</v>
+        <v>288915</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1746055103624143</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1539609280528983</v>
+        <v>0.1556537174161889</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1959440889974912</v>
+        <v>0.1976241441750715</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>220</v>
@@ -4283,19 +4283,19 @@
         <v>224197</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>199663</v>
+        <v>197027</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>252453</v>
+        <v>252608</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.140728973158881</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1253288917674998</v>
+        <v>0.1236741914364244</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.158465056543249</v>
+        <v>0.15856219000454</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>454</v>
@@ -4304,19 +4304,19 @@
         <v>479461</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>440118</v>
+        <v>440080</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>523910</v>
+        <v>525094</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.156939974447389</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1440621099657039</v>
+        <v>0.1440496062482402</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1714893317782281</v>
+        <v>0.171877021074582</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>1206679</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1175483</v>
+        <v>1173027</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1236860</v>
+        <v>1234385</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8253944896375857</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8040559110025088</v>
+        <v>0.8023758558249288</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8460390719471018</v>
+        <v>0.8443462825838112</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1282</v>
@@ -4354,19 +4354,19 @@
         <v>1368918</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1340662</v>
+        <v>1340507</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1393452</v>
+        <v>1396088</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.859271026841119</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8415349434567505</v>
+        <v>0.8414378099954604</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8746711082325002</v>
+        <v>0.8763258085635757</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2438</v>
@@ -4375,19 +4375,19 @@
         <v>2575597</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2531148</v>
+        <v>2529964</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2614940</v>
+        <v>2614978</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8430600255526111</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8285106682217719</v>
+        <v>0.828122978925418</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8559378900342961</v>
+        <v>0.8559503937517597</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>47408</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>32931</v>
+        <v>33149</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>66227</v>
+        <v>65963</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.131409976778359</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09128076618656041</v>
+        <v>0.0918866886636137</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.183574500661168</v>
+        <v>0.1828428357070147</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>49</v>
@@ -4740,19 +4740,19 @@
         <v>41982</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>31086</v>
+        <v>31549</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>54166</v>
+        <v>54756</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1210547434635173</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08963539186358982</v>
+        <v>0.09097019586818049</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.156184573550869</v>
+        <v>0.1578859681889561</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>87</v>
@@ -4761,19 +4761,19 @@
         <v>89390</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>71572</v>
+        <v>71472</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>112554</v>
+        <v>112167</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1263344969198065</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1011518354564224</v>
+        <v>0.1010114340496855</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1590722974233678</v>
+        <v>0.1585245199336778</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>313355</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>294536</v>
+        <v>294800</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>327832</v>
+        <v>327614</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8685900232216409</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8164254993388321</v>
+        <v>0.8171571642929849</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9087192338134396</v>
+        <v>0.9081133113363861</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>512</v>
@@ -4811,19 +4811,19 @@
         <v>304823</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>292639</v>
+        <v>292049</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>315719</v>
+        <v>315256</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8789452565364826</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.843815426449131</v>
+        <v>0.8421140318110438</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9103646081364102</v>
+        <v>0.9090298041318194</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>814</v>
@@ -4832,19 +4832,19 @@
         <v>618177</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>595013</v>
+        <v>595400</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>635995</v>
+        <v>636095</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8736655030801935</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8409277025766324</v>
+        <v>0.841475480066322</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8988481645435775</v>
+        <v>0.8989885659503144</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>84886</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>65781</v>
+        <v>66130</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>106389</v>
+        <v>108506</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.1674136671099988</v>
+        <v>0.1674136671099987</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.129735021219835</v>
+        <v>0.1304214813762083</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2098225660588311</v>
+        <v>0.2139967741734203</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>85</v>
@@ -4957,19 +4957,19 @@
         <v>75878</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>60529</v>
+        <v>61379</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>93058</v>
+        <v>94490</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1539125896459676</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1227784831975846</v>
+        <v>0.1245024071577625</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1887622954086868</v>
+        <v>0.191667637880642</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>142</v>
@@ -4978,19 +4978,19 @@
         <v>160764</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>136362</v>
+        <v>131667</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>188198</v>
+        <v>188458</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1607580001002429</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1363570476884387</v>
+        <v>0.131662582115316</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1881909925144424</v>
+        <v>0.1884508330608003</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>422159</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>400656</v>
+        <v>398539</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>441264</v>
+        <v>440915</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8325863328900013</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7901774339411687</v>
+        <v>0.7860032258265796</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.870264978780165</v>
+        <v>0.8695785186237917</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>559</v>
@@ -5028,19 +5028,19 @@
         <v>417113</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>399933</v>
+        <v>398501</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>432462</v>
+        <v>431612</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8460874103540326</v>
+        <v>0.8460874103540325</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8112377045913133</v>
+        <v>0.8083323621193579</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.877221516802416</v>
+        <v>0.875497592842238</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>893</v>
@@ -5049,19 +5049,19 @@
         <v>839272</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>811838</v>
+        <v>811578</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>863674</v>
+        <v>868369</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8392419998997569</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8118090074855576</v>
+        <v>0.8115491669391995</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8636429523115613</v>
+        <v>0.868337417884684</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>74518</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>57384</v>
+        <v>57539</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>95322</v>
+        <v>95843</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1948300567925332</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.150031467550569</v>
+        <v>0.1504365956896885</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2492218453203955</v>
+        <v>0.2505836560570884</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>75</v>
@@ -5174,19 +5174,19 @@
         <v>67861</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>54285</v>
+        <v>54631</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>84616</v>
+        <v>84495</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1702100781422664</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1361577872820265</v>
+        <v>0.1370244448770012</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2122341919199568</v>
+        <v>0.2119293948714661</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>129</v>
@@ -5195,19 +5195,19 @@
         <v>142380</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>120715</v>
+        <v>119734</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>167209</v>
+        <v>169178</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1822645680132959</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1545308379571899</v>
+        <v>0.1532756108130059</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2140499012692472</v>
+        <v>0.2165702936371525</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>307960</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>287156</v>
+        <v>286635</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>325094</v>
+        <v>324939</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8051699432074667</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7507781546796045</v>
+        <v>0.749416343942912</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8499685324494309</v>
+        <v>0.8495634043103115</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>393</v>
@@ -5245,19 +5245,19 @@
         <v>330831</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>314076</v>
+        <v>314197</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>344407</v>
+        <v>344061</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8297899218577338</v>
+        <v>0.8297899218577335</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7877658080800441</v>
+        <v>0.7880706051285339</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8638422127179741</v>
+        <v>0.8629755551229988</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>612</v>
@@ -5266,19 +5266,19 @@
         <v>638790</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>613961</v>
+        <v>611992</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>660455</v>
+        <v>661436</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8177354319867042</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7859500987307527</v>
+        <v>0.7834297063628475</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8454691620428106</v>
+        <v>0.8467243891869942</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>78385</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>61223</v>
+        <v>60560</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>98117</v>
+        <v>98007</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1571665806119004</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1227545639856997</v>
+        <v>0.1214263091427905</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1967301856252778</v>
+        <v>0.196509017511162</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>84</v>
@@ -5391,19 +5391,19 @@
         <v>71966</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>56991</v>
+        <v>56844</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>90610</v>
+        <v>86676</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1137333179287866</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09006750197506924</v>
+        <v>0.08983542179949844</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1431989726805274</v>
+        <v>0.1369813185126602</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>151</v>
@@ -5412,19 +5412,19 @@
         <v>150351</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>128493</v>
+        <v>127920</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>175305</v>
+        <v>176650</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1328777589264314</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1135598405170388</v>
+        <v>0.1130539011441711</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1549313589258289</v>
+        <v>0.1561205988294183</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>420356</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>400624</v>
+        <v>400734</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>437518</v>
+        <v>438181</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8428334193880995</v>
+        <v>0.8428334193880994</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8032698143747222</v>
+        <v>0.8034909824888383</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8772454360143003</v>
+        <v>0.8785736908572096</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>735</v>
@@ -5462,19 +5462,19 @@
         <v>560793</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>542149</v>
+        <v>546083</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>575768</v>
+        <v>575915</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8862666820712135</v>
+        <v>0.8862666820712133</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8568010273194726</v>
+        <v>0.8630186814873398</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9099324980249309</v>
+        <v>0.9101645782005018</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1098</v>
@@ -5483,19 +5483,19 @@
         <v>981149</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>956195</v>
+        <v>954850</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1003007</v>
+        <v>1003580</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8671222410735686</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8450686410741711</v>
+        <v>0.8438794011705817</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8864401594829612</v>
+        <v>0.886946098855829</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>285198</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>248112</v>
+        <v>250248</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>324846</v>
+        <v>325807</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1630608151273786</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1418574240684282</v>
+        <v>0.143078393107544</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1857296586692203</v>
+        <v>0.1862788582399737</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>293</v>
@@ -5608,19 +5608,19 @@
         <v>257687</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>227579</v>
+        <v>230137</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>288035</v>
+        <v>289501</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1377087440063847</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1216190966698882</v>
+        <v>0.1229857601210919</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.153926723652598</v>
+        <v>0.1547100820222892</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>509</v>
@@ -5629,19 +5629,19 @@
         <v>542885</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>499634</v>
+        <v>497276</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>599208</v>
+        <v>591771</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1499568387655092</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1380100807399491</v>
+        <v>0.1373586234160603</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.165514468450771</v>
+        <v>0.1634603102612082</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>1463829</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1424181</v>
+        <v>1423220</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1500915</v>
+        <v>1498779</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8369391848726213</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8142703413307794</v>
+        <v>0.8137211417600261</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8581425759315717</v>
+        <v>0.8569216068924558</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2199</v>
@@ -5679,19 +5679,19 @@
         <v>1613560</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1583212</v>
+        <v>1581746</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1643668</v>
+        <v>1641110</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8622912559936152</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8460732763474028</v>
+        <v>0.8452899179777115</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.878380903330112</v>
+        <v>0.877014239878908</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3417</v>
@@ -5700,19 +5700,19 @@
         <v>3077389</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3021066</v>
+        <v>3028503</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3120640</v>
+        <v>3122998</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8500431612344908</v>
+        <v>0.8500431612344906</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.834485531549229</v>
+        <v>0.8365396897387918</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8619899192600512</v>
+        <v>0.8626413765839396</v>
       </c>
     </row>
     <row r="18">
